--- a/APITesting/src/main/java/Resources/TestData.xlsx
+++ b/APITesting/src/main/java/Resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\APITesting\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\APITesting1\APITesting\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB300285-8106-43D9-89CC-54B47EC34082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B8110-20D8-4589-9939-25611EECA5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9111D05E-879B-421C-A9AE-50A8B613B124}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9111D05E-879B-421C-A9AE-50A8B613B124}"/>
   </bookViews>
   <sheets>
     <sheet name="AddPlace" sheetId="1" r:id="rId1"/>
+    <sheet name="LibraryApi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>TestNo</t>
   </si>
@@ -146,13 +147,55 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Testing Concepts</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Failures</t>
+  </si>
+  <si>
+    <t>Passesd Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +209,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,16 +281,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64768E96-D0DB-4F15-8703-B7640657CFF4}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,4 +1260,206 @@
     <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE7A186-989E-409C-8767-EC758067F6BC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>33.256700000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6">
+        <v>28.1234</v>
+      </c>
+      <c r="D3" s="6">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>22.990100000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6">
+        <v>17.8568</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.7235</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.5902000000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.4569000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-2.6764000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-7.8097000000000003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-12.943</v>
+      </c>
+      <c r="D11" s="12">
+        <v>90</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>